--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H2">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I2">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J2">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90659082210106</v>
+        <v>1.9078655</v>
       </c>
       <c r="N2">
-        <v>1.90659082210106</v>
+        <v>3.815731</v>
       </c>
       <c r="O2">
-        <v>0.01300710905667956</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P2">
-        <v>0.01300710905667956</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q2">
-        <v>208.3986638377903</v>
+        <v>216.3047824030418</v>
       </c>
       <c r="R2">
-        <v>208.3986638377903</v>
+        <v>865.2191296121671</v>
       </c>
       <c r="S2">
-        <v>0.0008487044088628764</v>
+        <v>0.000809490153379314</v>
       </c>
       <c r="T2">
-        <v>0.0008487044088628764</v>
+        <v>0.0003843982713950957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H3">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I3">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J3">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>62.7743674168353</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N3">
-        <v>62.7743674168353</v>
+        <v>4.007239</v>
       </c>
       <c r="O3">
-        <v>0.4282581419620247</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P3">
-        <v>0.4282581419620247</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q3">
-        <v>6861.511206958687</v>
+        <v>151.4406125470205</v>
       </c>
       <c r="R3">
-        <v>6861.511206958687</v>
+        <v>908.6436752821231</v>
       </c>
       <c r="S3">
-        <v>0.02794353238915478</v>
+        <v>0.0005667451422785603</v>
       </c>
       <c r="T3">
-        <v>0.02794353238915478</v>
+        <v>0.0004036908641272176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H4">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I4">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J4">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.1811582375426</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N4">
-        <v>80.1811582375426</v>
+        <v>193.99091</v>
       </c>
       <c r="O4">
-        <v>0.5470104321268556</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P4">
-        <v>0.5470104321268556</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q4">
-        <v>8764.149102142594</v>
+        <v>7331.257815906147</v>
       </c>
       <c r="R4">
-        <v>8764.149102142594</v>
+        <v>43987.54689543688</v>
       </c>
       <c r="S4">
-        <v>0.03569203298112138</v>
+        <v>0.02743619881137546</v>
       </c>
       <c r="T4">
-        <v>0.03569203298112138</v>
+        <v>0.01954272208139452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.304346492204</v>
+        <v>113.3752785</v>
       </c>
       <c r="H5">
-        <v>109.304346492204</v>
+        <v>226.750557</v>
       </c>
       <c r="I5">
-        <v>0.06524927292948618</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J5">
-        <v>0.06524927292948618</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.71855827553021</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N5">
-        <v>1.71855827553021</v>
+        <v>241.87754</v>
       </c>
       <c r="O5">
-        <v>0.01172431685444028</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P5">
-        <v>0.01172431685444028</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q5">
-        <v>187.8458892155987</v>
+        <v>9140.977820131631</v>
       </c>
       <c r="R5">
-        <v>187.8458892155987</v>
+        <v>54845.86692078978</v>
       </c>
       <c r="S5">
-        <v>0.0007650031503471489</v>
+        <v>0.03420882079189391</v>
       </c>
       <c r="T5">
-        <v>0.0007650031503471489</v>
+        <v>0.02436684039448748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1294.40133208617</v>
+        <v>113.3752785</v>
       </c>
       <c r="H6">
-        <v>1294.40133208617</v>
+        <v>226.750557</v>
       </c>
       <c r="I6">
-        <v>0.7726933878480751</v>
+        <v>0.06376184507388981</v>
       </c>
       <c r="J6">
-        <v>0.7726933878480751</v>
+        <v>0.04522517177062929</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.90659082210106</v>
+        <v>1.745477</v>
       </c>
       <c r="N6">
-        <v>1.90659082210106</v>
+        <v>5.236431</v>
       </c>
       <c r="O6">
-        <v>0.01300710905667956</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P6">
-        <v>0.01300710905667956</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q6">
-        <v>2467.893699870878</v>
+        <v>197.8939409903445</v>
       </c>
       <c r="R6">
-        <v>2467.893699870878</v>
+        <v>1187.363645942067</v>
       </c>
       <c r="S6">
-        <v>0.01005050716311511</v>
+        <v>0.0007405901749625773</v>
       </c>
       <c r="T6">
-        <v>0.01005050716311511</v>
+        <v>0.0005275201592249801</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H7">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I7">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J7">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.7743674168353</v>
+        <v>1.9078655</v>
       </c>
       <c r="N7">
-        <v>62.7743674168353</v>
+        <v>3.815731</v>
       </c>
       <c r="O7">
-        <v>0.4282581419620247</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P7">
-        <v>0.4282581419620247</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q7">
-        <v>81255.22480521827</v>
+        <v>2634.646778760836</v>
       </c>
       <c r="R7">
-        <v>81255.22480521827</v>
+        <v>15807.88067256502</v>
       </c>
       <c r="S7">
-        <v>0.3309122345861587</v>
+        <v>0.009859794135598518</v>
       </c>
       <c r="T7">
-        <v>0.3309122345861587</v>
+        <v>0.007023101775012448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H8">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I8">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J8">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>80.1811582375426</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N8">
-        <v>80.1811582375426</v>
+        <v>4.007239</v>
       </c>
       <c r="O8">
-        <v>0.5470104321268556</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P8">
-        <v>0.5470104321268556</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q8">
-        <v>103786.5980308871</v>
+        <v>1844.584838060264</v>
       </c>
       <c r="R8">
-        <v>103786.5980308871</v>
+        <v>16601.26354254238</v>
       </c>
       <c r="S8">
-        <v>0.4226713439883396</v>
+        <v>0.006903098705882162</v>
       </c>
       <c r="T8">
-        <v>0.4226713439883396</v>
+        <v>0.007375584739542466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1294.40133208617</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H9">
-        <v>1294.40133208617</v>
+        <v>4142.81842</v>
       </c>
       <c r="I9">
-        <v>0.7726933878480751</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J9">
-        <v>0.7726933878480751</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.71855827553021</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N9">
-        <v>1.71855827553021</v>
+        <v>193.99091</v>
       </c>
       <c r="O9">
-        <v>0.01172431685444028</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P9">
-        <v>0.01172431685444028</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q9">
-        <v>2224.504121114015</v>
+        <v>89296.56836228468</v>
       </c>
       <c r="R9">
-        <v>2224.504121114015</v>
+        <v>803669.1152605622</v>
       </c>
       <c r="S9">
-        <v>0.009059302110461749</v>
+        <v>0.334179818017818</v>
       </c>
       <c r="T9">
-        <v>0.009059302110461749</v>
+        <v>0.3570529223253107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.616832947021682</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H10">
-        <v>0.616832947021682</v>
+        <v>4142.81842</v>
       </c>
       <c r="I10">
-        <v>0.0003682186720268041</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J10">
-        <v>0.0003682186720268041</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.90659082210106</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N10">
-        <v>1.90659082210106</v>
+        <v>241.87754</v>
       </c>
       <c r="O10">
-        <v>0.01300710905667956</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P10">
-        <v>0.01300710905667956</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q10">
-        <v>1.176048035561088</v>
+        <v>111339.4142329208</v>
       </c>
       <c r="R10">
-        <v>1.176048035561088</v>
+        <v>1002054.728096287</v>
       </c>
       <c r="S10">
-        <v>4.789460423758365E-06</v>
+        <v>0.4166720610764572</v>
       </c>
       <c r="T10">
-        <v>4.789460423758365E-06</v>
+        <v>0.4451913881009024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.616832947021682</v>
+        <v>1380.939473333333</v>
       </c>
       <c r="H11">
-        <v>0.616832947021682</v>
+        <v>4142.81842</v>
       </c>
       <c r="I11">
-        <v>0.0003682186720268041</v>
+        <v>0.7766353469649819</v>
       </c>
       <c r="J11">
-        <v>0.0003682186720268041</v>
+        <v>0.8262809897266405</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>62.7743674168353</v>
+        <v>1.745477</v>
       </c>
       <c r="N11">
-        <v>62.7743674168353</v>
+        <v>5.236431</v>
       </c>
       <c r="O11">
-        <v>0.4282581419620247</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P11">
-        <v>0.4282581419620247</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q11">
-        <v>38.72129805114837</v>
+        <v>2410.398089095446</v>
       </c>
       <c r="R11">
-        <v>38.72129805114837</v>
+        <v>21693.58280185901</v>
       </c>
       <c r="S11">
-        <v>0.0001576926443179233</v>
+        <v>0.009020575029226168</v>
       </c>
       <c r="T11">
-        <v>0.0001576926443179233</v>
+        <v>0.009637992785872539</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.616832947021682</v>
+        <v>1.722832</v>
       </c>
       <c r="H12">
-        <v>0.616832947021682</v>
+        <v>5.168496</v>
       </c>
       <c r="I12">
-        <v>0.0003682186720268041</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J12">
-        <v>0.0003682186720268041</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>80.1811582375426</v>
+        <v>1.9078655</v>
       </c>
       <c r="N12">
-        <v>80.1811582375426</v>
+        <v>3.815731</v>
       </c>
       <c r="O12">
-        <v>0.5470104321268556</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P12">
-        <v>0.5470104321268556</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q12">
-        <v>49.45838013127522</v>
+        <v>3.286931735096</v>
       </c>
       <c r="R12">
-        <v>49.45838013127522</v>
+        <v>19.721590410576</v>
       </c>
       <c r="S12">
-        <v>0.000201419454902559</v>
+        <v>1.230087862520038E-05</v>
       </c>
       <c r="T12">
-        <v>0.000201419454902559</v>
+        <v>8.761878931624704E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.616832947021682</v>
+        <v>1.722832</v>
       </c>
       <c r="H13">
-        <v>0.616832947021682</v>
+        <v>5.168496</v>
       </c>
       <c r="I13">
-        <v>0.0003682186720268041</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J13">
-        <v>0.0003682186720268041</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.71855827553021</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N13">
-        <v>1.71855827553021</v>
+        <v>4.007239</v>
       </c>
       <c r="O13">
-        <v>0.01172431685444028</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P13">
-        <v>0.01172431685444028</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q13">
-        <v>1.060063365723799</v>
+        <v>2.301266526949334</v>
       </c>
       <c r="R13">
-        <v>1.060063365723799</v>
+        <v>20.711398742544</v>
       </c>
       <c r="S13">
-        <v>4.317112382563478E-06</v>
+        <v>8.61216554332042E-06</v>
       </c>
       <c r="T13">
-        <v>4.317112382563478E-06</v>
+        <v>9.201629509020644E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.90690506178943</v>
+        <v>1.722832</v>
       </c>
       <c r="H14">
-        <v>3.90690506178943</v>
+        <v>5.168496</v>
       </c>
       <c r="I14">
-        <v>0.002332228523999927</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J14">
-        <v>0.002332228523999927</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.90659082210106</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N14">
-        <v>1.90659082210106</v>
+        <v>193.99091</v>
       </c>
       <c r="O14">
-        <v>0.01300710905667956</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P14">
-        <v>0.01300710905667956</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q14">
-        <v>7.448869333627901</v>
+        <v>111.4045824857067</v>
       </c>
       <c r="R14">
-        <v>7.448869333627901</v>
+        <v>1002.64124237136</v>
       </c>
       <c r="S14">
-        <v>3.033555075676587E-05</v>
+        <v>0.0004169159440750534</v>
       </c>
       <c r="T14">
-        <v>3.033555075676587E-05</v>
+        <v>0.0004454519637929677</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.90690506178943</v>
+        <v>1.722832</v>
       </c>
       <c r="H15">
-        <v>3.90690506178943</v>
+        <v>5.168496</v>
       </c>
       <c r="I15">
-        <v>0.002332228523999927</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J15">
-        <v>0.002332228523999927</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.7743674168353</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N15">
-        <v>62.7743674168353</v>
+        <v>241.87754</v>
       </c>
       <c r="O15">
-        <v>0.4282581419620247</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P15">
-        <v>0.4282581419620247</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q15">
-        <v>245.2534938114633</v>
+        <v>138.9047886644267</v>
       </c>
       <c r="R15">
-        <v>245.2534938114633</v>
+        <v>1250.14309797984</v>
       </c>
       <c r="S15">
-        <v>0.0009987958543190441</v>
+        <v>0.0005198315887051176</v>
       </c>
       <c r="T15">
-        <v>0.0009987958543190441</v>
+        <v>0.000555411721046167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.90690506178943</v>
+        <v>1.722832</v>
       </c>
       <c r="H16">
-        <v>3.90690506178943</v>
+        <v>5.168496</v>
       </c>
       <c r="I16">
-        <v>0.002332228523999927</v>
+        <v>0.000968914462885661</v>
       </c>
       <c r="J16">
-        <v>0.002332228523999927</v>
+        <v>0.00103085135705228</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.1811582375426</v>
+        <v>1.745477</v>
       </c>
       <c r="N16">
-        <v>80.1811582375426</v>
+        <v>5.236431</v>
       </c>
       <c r="O16">
-        <v>0.5470104321268556</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P16">
-        <v>0.5470104321268556</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q16">
-        <v>313.2601729783945</v>
+        <v>3.007163630864</v>
       </c>
       <c r="R16">
-        <v>313.2601729783945</v>
+        <v>27.064472677776</v>
       </c>
       <c r="S16">
-        <v>0.001275753332731779</v>
+        <v>1.125388593696929E-05</v>
       </c>
       <c r="T16">
-        <v>0.001275753332731779</v>
+        <v>1.202416377250034E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.90690506178943</v>
+        <v>4.12431</v>
       </c>
       <c r="H17">
-        <v>3.90690506178943</v>
+        <v>12.37293</v>
       </c>
       <c r="I17">
-        <v>0.002332228523999927</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J17">
-        <v>0.002332228523999927</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.71855827553021</v>
+        <v>1.9078655</v>
       </c>
       <c r="N17">
-        <v>1.71855827553021</v>
+        <v>3.815731</v>
       </c>
       <c r="O17">
-        <v>0.01172431685444028</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P17">
-        <v>0.01172431685444028</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q17">
-        <v>6.714244025649092</v>
+        <v>7.868628760305</v>
       </c>
       <c r="R17">
-        <v>6.714244025649092</v>
+        <v>47.21177256183</v>
       </c>
       <c r="S17">
-        <v>2.734378619233873E-05</v>
+        <v>2.944723381194463E-05</v>
       </c>
       <c r="T17">
-        <v>2.734378619233873E-05</v>
+        <v>2.097517627748328E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>67.29785675020671</v>
+        <v>4.12431</v>
       </c>
       <c r="H18">
-        <v>67.29785675020671</v>
+        <v>12.37293</v>
       </c>
       <c r="I18">
-        <v>0.04017348224095456</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J18">
-        <v>0.04017348224095456</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.90659082210106</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N18">
-        <v>1.90659082210106</v>
+        <v>4.007239</v>
       </c>
       <c r="O18">
-        <v>0.01300710905667956</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P18">
-        <v>0.01300710905667956</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q18">
-        <v>128.309476027016</v>
+        <v>5.509031960030002</v>
       </c>
       <c r="R18">
-        <v>128.309476027016</v>
+        <v>49.58128764027001</v>
       </c>
       <c r="S18">
-        <v>0.0005225408646946757</v>
+        <v>2.061677544413607E-05</v>
       </c>
       <c r="T18">
-        <v>0.0005225408646946757</v>
+        <v>2.202790092147634E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>67.29785675020671</v>
+        <v>4.12431</v>
       </c>
       <c r="H19">
-        <v>67.29785675020671</v>
+        <v>12.37293</v>
       </c>
       <c r="I19">
-        <v>0.04017348224095456</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J19">
-        <v>0.04017348224095456</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.7743674168353</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N19">
-        <v>62.7743674168353</v>
+        <v>193.99091</v>
       </c>
       <c r="O19">
-        <v>0.4282581419620247</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P19">
-        <v>0.4282581419620247</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q19">
-        <v>4224.580386003026</v>
+        <v>266.6928833407001</v>
       </c>
       <c r="R19">
-        <v>4224.580386003026</v>
+        <v>2400.2359500663</v>
       </c>
       <c r="S19">
-        <v>0.01720462086065559</v>
+        <v>0.0009980605173970437</v>
       </c>
       <c r="T19">
-        <v>0.01720462086065559</v>
+        <v>0.001066373267266323</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>67.29785675020671</v>
+        <v>4.12431</v>
       </c>
       <c r="H20">
-        <v>67.29785675020671</v>
+        <v>12.37293</v>
       </c>
       <c r="I20">
-        <v>0.04017348224095456</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J20">
-        <v>0.04017348224095456</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>80.1811582375426</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N20">
-        <v>80.1811582375426</v>
+        <v>241.87754</v>
       </c>
       <c r="O20">
-        <v>0.5470104321268556</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P20">
-        <v>0.5470104321268556</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q20">
-        <v>5396.020101135799</v>
+        <v>332.5259856658001</v>
       </c>
       <c r="R20">
-        <v>5396.020101135799</v>
+        <v>2992.7338709922</v>
       </c>
       <c r="S20">
-        <v>0.02197531388066511</v>
+        <v>0.001244431621662706</v>
       </c>
       <c r="T20">
-        <v>0.02197531388066511</v>
+        <v>0.00132960736463446</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,57 +1715,57 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>67.29785675020671</v>
+        <v>4.12431</v>
       </c>
       <c r="H21">
-        <v>67.29785675020671</v>
+        <v>12.37293</v>
       </c>
       <c r="I21">
-        <v>0.04017348224095456</v>
+        <v>0.002319496972672878</v>
       </c>
       <c r="J21">
-        <v>0.04017348224095456</v>
+        <v>0.002467768511615926</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.71855827553021</v>
+        <v>1.745477</v>
       </c>
       <c r="N21">
-        <v>1.71855827553021</v>
+        <v>5.236431</v>
       </c>
       <c r="O21">
-        <v>0.01172431685444028</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P21">
-        <v>0.01172431685444028</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q21">
-        <v>115.6552886435143</v>
+        <v>7.19888824587</v>
       </c>
       <c r="R21">
-        <v>115.6552886435143</v>
+        <v>64.78999421283</v>
       </c>
       <c r="S21">
-        <v>0.0004710066349391809</v>
+        <v>2.694082435704806E-05</v>
       </c>
       <c r="T21">
-        <v>0.0004710066349391809</v>
+        <v>2.878480251618315E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,57 +1777,57 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>199.653791290369</v>
+        <v>70.81572733333333</v>
       </c>
       <c r="H22">
-        <v>199.653791290369</v>
+        <v>212.447182</v>
       </c>
       <c r="I22">
-        <v>0.1191834097854573</v>
+        <v>0.03982650798977153</v>
       </c>
       <c r="J22">
-        <v>0.1191834097854573</v>
+        <v>0.04237237793482528</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.90659082210106</v>
+        <v>1.9078655</v>
       </c>
       <c r="N22">
-        <v>1.90659082210106</v>
+        <v>3.815731</v>
       </c>
       <c r="O22">
-        <v>0.01300710905667956</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P22">
-        <v>0.01300710905667956</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q22">
-        <v>380.6580860718981</v>
+        <v>135.1068830366737</v>
       </c>
       <c r="R22">
-        <v>380.6580860718981</v>
+        <v>810.641298220042</v>
       </c>
       <c r="S22">
-        <v>0.001550231608826373</v>
+        <v>0.0005056184623240213</v>
       </c>
       <c r="T22">
-        <v>0.001550231608826373</v>
+        <v>0.0003601505134276662</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>199.653791290369</v>
+        <v>70.81572733333333</v>
       </c>
       <c r="H23">
-        <v>199.653791290369</v>
+        <v>212.447182</v>
       </c>
       <c r="I23">
-        <v>0.1191834097854573</v>
+        <v>0.03982650798977153</v>
       </c>
       <c r="J23">
-        <v>0.1191834097854573</v>
+        <v>0.04237237793482528</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>62.7743674168353</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N23">
-        <v>62.7743674168353</v>
+        <v>4.007239</v>
       </c>
       <c r="O23">
-        <v>0.4282581419620247</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P23">
-        <v>0.4282581419620247</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q23">
-        <v>12533.14045062577</v>
+        <v>94.59184812783312</v>
       </c>
       <c r="R23">
-        <v>12533.14045062577</v>
+        <v>851.3266331504981</v>
       </c>
       <c r="S23">
-        <v>0.05104126562741852</v>
+        <v>0.0003539966560090057</v>
       </c>
       <c r="T23">
-        <v>0.05104126562741852</v>
+        <v>0.0003782261336759241</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>199.653791290369</v>
+        <v>70.81572733333333</v>
       </c>
       <c r="H24">
-        <v>199.653791290369</v>
+        <v>212.447182</v>
       </c>
       <c r="I24">
-        <v>0.1191834097854573</v>
+        <v>0.03982650798977153</v>
       </c>
       <c r="J24">
-        <v>0.1191834097854573</v>
+        <v>0.04237237793482528</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>80.1811582375426</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N24">
-        <v>80.1811582375426</v>
+        <v>193.99091</v>
       </c>
       <c r="O24">
-        <v>0.5470104321268556</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P24">
-        <v>0.5470104321268556</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q24">
-        <v>16008.47223217838</v>
+        <v>4579.202462568403</v>
       </c>
       <c r="R24">
-        <v>16008.47223217838</v>
+        <v>41212.82216311562</v>
       </c>
       <c r="S24">
-        <v>0.06519456848909509</v>
+        <v>0.01713701963774658</v>
       </c>
       <c r="T24">
-        <v>0.06519456848909509</v>
+        <v>0.01830997149348321</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>70.81572733333333</v>
+      </c>
+      <c r="H25">
+        <v>212.447182</v>
+      </c>
+      <c r="I25">
+        <v>0.03982650798977153</v>
+      </c>
+      <c r="J25">
+        <v>0.04237237793482528</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>80.62584666666667</v>
+      </c>
+      <c r="N25">
+        <v>241.87754</v>
+      </c>
+      <c r="O25">
+        <v>0.5365092674506414</v>
+      </c>
+      <c r="P25">
+        <v>0.5387893387795181</v>
+      </c>
+      <c r="Q25">
+        <v>5709.577973565809</v>
+      </c>
+      <c r="R25">
+        <v>51386.20176209229</v>
+      </c>
+      <c r="S25">
+        <v>0.02136729062670944</v>
+      </c>
+      <c r="T25">
+        <v>0.02282978549002036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>70.81572733333333</v>
+      </c>
+      <c r="H26">
+        <v>212.447182</v>
+      </c>
+      <c r="I26">
+        <v>0.03982650798977153</v>
+      </c>
+      <c r="J26">
+        <v>0.04237237793482528</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.745477</v>
+      </c>
+      <c r="N26">
+        <v>5.236431</v>
+      </c>
+      <c r="O26">
+        <v>0.01161494266836776</v>
+      </c>
+      <c r="P26">
+        <v>0.01166430416009097</v>
+      </c>
+      <c r="Q26">
+        <v>123.6072232986047</v>
+      </c>
+      <c r="R26">
+        <v>1112.465009687442</v>
+      </c>
+      <c r="S26">
+        <v>0.0004625826069824868</v>
+      </c>
+      <c r="T26">
+        <v>0.0004942443042181294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>207.127739</v>
+      </c>
+      <c r="H27">
+        <v>414.255478</v>
+      </c>
+      <c r="I27">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J27">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.9078655</v>
+      </c>
+      <c r="N27">
+        <v>3.815731</v>
+      </c>
+      <c r="O27">
+        <v>0.01269552586568416</v>
+      </c>
+      <c r="P27">
+        <v>0.00849965309904553</v>
+      </c>
+      <c r="Q27">
+        <v>395.1718673311045</v>
+      </c>
+      <c r="R27">
+        <v>1580.687469324418</v>
+      </c>
+      <c r="S27">
+        <v>0.001478875001945159</v>
+      </c>
+      <c r="T27">
+        <v>0.0007022654840012106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>207.127739</v>
+      </c>
+      <c r="H28">
+        <v>414.255478</v>
+      </c>
+      <c r="I28">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J28">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.335746333333333</v>
+      </c>
+      <c r="N28">
+        <v>4.007239</v>
+      </c>
+      <c r="O28">
+        <v>0.008888468356299806</v>
+      </c>
+      <c r="P28">
+        <v>0.008926242805105003</v>
+      </c>
+      <c r="Q28">
+        <v>276.6701179008737</v>
+      </c>
+      <c r="R28">
+        <v>1660.020707405242</v>
+      </c>
+      <c r="S28">
+        <v>0.001035398911142622</v>
+      </c>
+      <c r="T28">
+        <v>0.0007375115373288965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>207.127739</v>
+      </c>
+      <c r="H29">
+        <v>414.255478</v>
+      </c>
+      <c r="I29">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J29">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>64.66363666666668</v>
+      </c>
+      <c r="N29">
+        <v>193.99091</v>
+      </c>
+      <c r="O29">
+        <v>0.430291795659007</v>
+      </c>
+      <c r="P29">
+        <v>0.4321204611562405</v>
+      </c>
+      <c r="Q29">
+        <v>13393.63285828417</v>
+      </c>
+      <c r="R29">
+        <v>80361.79714970499</v>
+      </c>
+      <c r="S29">
+        <v>0.05012378273059488</v>
+      </c>
+      <c r="T29">
+        <v>0.03570302002499267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>207.127739</v>
+      </c>
+      <c r="H30">
+        <v>414.255478</v>
+      </c>
+      <c r="I30">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J30">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>80.62584666666667</v>
+      </c>
+      <c r="N30">
+        <v>241.87754</v>
+      </c>
+      <c r="O30">
+        <v>0.5365092674506414</v>
+      </c>
+      <c r="P30">
+        <v>0.5387893387795181</v>
+      </c>
+      <c r="Q30">
+        <v>16699.84932502735</v>
+      </c>
+      <c r="R30">
+        <v>100199.0959501641</v>
+      </c>
+      <c r="S30">
+        <v>0.06249683174521308</v>
+      </c>
+      <c r="T30">
+        <v>0.04451630570842708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>199.653791290369</v>
-      </c>
-      <c r="H25">
-        <v>199.653791290369</v>
-      </c>
-      <c r="I25">
-        <v>0.1191834097854573</v>
-      </c>
-      <c r="J25">
-        <v>0.1191834097854573</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.71855827553021</v>
-      </c>
-      <c r="N25">
-        <v>1.71855827553021</v>
-      </c>
-      <c r="O25">
-        <v>0.01172431685444028</v>
-      </c>
-      <c r="P25">
-        <v>0.01172431685444028</v>
-      </c>
-      <c r="Q25">
-        <v>343.116675263045</v>
-      </c>
-      <c r="R25">
-        <v>343.116675263045</v>
-      </c>
-      <c r="S25">
-        <v>0.001397344060117299</v>
-      </c>
-      <c r="T25">
-        <v>0.001397344060117299</v>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>207.127739</v>
+      </c>
+      <c r="H31">
+        <v>414.255478</v>
+      </c>
+      <c r="I31">
+        <v>0.1164878885357982</v>
+      </c>
+      <c r="J31">
+        <v>0.08262284069923649</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.745477</v>
+      </c>
+      <c r="N31">
+        <v>5.236431</v>
+      </c>
+      <c r="O31">
+        <v>0.01161494266836776</v>
+      </c>
+      <c r="P31">
+        <v>0.01166430416009097</v>
+      </c>
+      <c r="Q31">
+        <v>361.536704486503</v>
+      </c>
+      <c r="R31">
+        <v>2169.220226919018</v>
+      </c>
+      <c r="S31">
+        <v>0.00135300014690251</v>
+      </c>
+      <c r="T31">
+        <v>0.0009637379444866379</v>
       </c>
     </row>
   </sheetData>
